--- a/for-tests/itay/move/FlightGUIBU_copy/Default.xlsx
+++ b/for-tests/itay/move/FlightGUIBU_copy/Default.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Launch App" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
-    <sheet name="Book Flight" sheetId="4" r:id="rId4"/>
+    <sheet name="Book Flight-new" sheetId="4" r:id="rId4"/>
     <sheet name="Select Flight-test" sheetId="5" r:id="rId5"/>
     <sheet name="Order Flight" sheetId="6" r:id="rId6"/>
     <sheet name="Update Order Details" sheetId="7" r:id="rId7"/>
